--- a/Simulation records.xlsx
+++ b/Simulation records.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mollycui/Desktop/R script/Research 10-Epid PMCMC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{85FCDE24-985E-E242-91B3-746CFAAE2D0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57FC8FBC-31B7-FB41-8BE0-28BF5D1DB4B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="16440" xr2:uid="{73EBA2C9-B6D1-D34C-942B-D64591FD68DC}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
   <si>
     <t>Number</t>
   </si>
@@ -84,10 +84,6 @@
     <t>CrossValidation-60w England Covid-19 data in our own model</t>
   </si>
   <si>
-    <t>COVID-19 England 60 weeks data: 2020.3.23
--2021.3.28 in England</t>
-  </si>
-  <si>
     <t>our own model</t>
   </si>
   <si>
@@ -95,6 +91,45 @@
 log-likelihood var is 4.34
 acceptance rate in M-H 0.064
 Over fitting issue appear-narrow CI in y</t>
+  </si>
+  <si>
+    <t>Overfitting-60wCOVID+our model+their obs eq</t>
+  </si>
+  <si>
+    <t>our own model's main frame but in replace of Z and
+their original log normal obs equation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">256 particles in SMC used, 
+log-likelihood var is 0.67
+acceptance rate in M-H is too low after several adapting-0.0090
+Over fitting issue appear-narrow CI both in y and beta </t>
+  </si>
+  <si>
+    <t>Overfitting-60wCOVID England with modified weekly model</t>
+  </si>
+  <si>
+    <t>paper's model frame but change obs equation to our Poisson one and modify the prior value settings for alpha and gamma</t>
+  </si>
+  <si>
+    <t>3200 particles in SMC used, 
+log-likelihood var is 5.61
+acceptance rate in M-H 0.09
+Over fitting issue appear-narrow CI in y</t>
+  </si>
+  <si>
+    <t>paper original model-only N different</t>
+  </si>
+  <si>
+    <t>COVID-19 England 60 weeks data: 2020.2.3
+-2021.3.28 in England</t>
+  </si>
+  <si>
+    <t>COVID-19 England 427 daily data: 2020.1.30
+-2021.3.31 in England</t>
+  </si>
+  <si>
+    <t>Simulated COVID-19 with fixed parameters 427 daily data-Without considerations of social NPIs, a non-decreasing y values</t>
   </si>
 </sst>
 </file>
@@ -495,8 +530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB48E814-6902-C940-B5C2-3CDDF6C11F6F}">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -566,24 +601,76 @@
         <v>12</v>
       </c>
       <c r="C4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" s="3" customFormat="1" ht="19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:5" s="3" customFormat="1" ht="120" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" s="3" customFormat="1" ht="19" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="1:5" s="3" customFormat="1" ht="19" x14ac:dyDescent="0.2"/>
-    <row r="8" spans="1:5" s="3" customFormat="1" ht="19" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="1:5" s="3" customFormat="1" ht="19" x14ac:dyDescent="0.2"/>
+      <c r="B5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="3" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="3" customFormat="1" ht="40" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="3" customFormat="1" ht="40" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.2">
+      <c r="C9" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
     <row r="10" spans="1:5" s="3" customFormat="1" ht="19" x14ac:dyDescent="0.2"/>
     <row r="11" spans="1:5" s="3" customFormat="1" ht="19" x14ac:dyDescent="0.2"/>
     <row r="12" spans="1:5" s="3" customFormat="1" ht="19" x14ac:dyDescent="0.2"/>
@@ -598,5 +685,6 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/Simulation records.xlsx
+++ b/Simulation records.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mollycui/Desktop/R script/Research 10-Epid PMCMC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57FC8FBC-31B7-FB41-8BE0-28BF5D1DB4B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FAF2A07-1179-0C4B-A836-90DAAC78D139}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="16440" xr2:uid="{73EBA2C9-B6D1-D34C-942B-D64591FD68DC}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="44">
   <si>
     <t>Number</t>
   </si>
@@ -75,12 +75,6 @@
 Over fitting issue appear-narrow CI in y</t>
   </si>
   <si>
-    <t xml:space="preserve">256 particles in SMC used, 
-log-likelihood var is 0.51
-acceptance rate in M-H 0.104
-</t>
-  </si>
-  <si>
     <t>CrossValidation-60w England Covid-19 data in our own model</t>
   </si>
   <si>
@@ -130,13 +124,159 @@
   </si>
   <si>
     <t>Simulated COVID-19 with fixed parameters 427 daily data-Without considerations of social NPIs, a non-decreasing y values</t>
+  </si>
+  <si>
+    <t>3200 particles in SMC used, 
+log-likelihood var is 2.24
+acceptance rate in M-H 0.023
+Over fitting issue appear-narrow CI in y</t>
+  </si>
+  <si>
+    <t>Overfitting-our data+paper model</t>
+  </si>
+  <si>
+    <t>paper original model-With modified model structure</t>
+  </si>
+  <si>
+    <t>paperdata-model framework-papermodel2.R</t>
+  </si>
+  <si>
+    <t>paper original model-With modified obs equation 
+and delete tau</t>
+  </si>
+  <si>
+    <t>paperdata-modelframework+death rate-papermoel4.R</t>
+  </si>
+  <si>
+    <t>paper original model-With modified model structure
++death rate 0.00026</t>
+  </si>
+  <si>
+    <t>paper original model-With modified prior settings for alpha and gamma</t>
+  </si>
+  <si>
+    <t>paperdata-modified obs eq-papermoel3.R</t>
+  </si>
+  <si>
+    <t>paperdata-modified priors-papermodel5.R</t>
+  </si>
+  <si>
+    <t>256 particles in SMC used, 
+log-likelihood var is 0.51
+acceptance rate in M-H 0.104
+mean(alpha-onset symptom rate)=0.6280
+mean(gamma-recovery rate)=0.9161</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">128 particles in SMC used, 
+log-likelihood var is 0.64
+acceptance rate in M-H 0.093
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="5"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>No overfitting issue-but tendency of beta is changed
+mean(alpha-onest symptom rate)=0.6246
+mean(gamma-recovery rate)=0.9304</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">128 particles in SMC used, 
+log-likelihood var is 0.66
+acceptance rate in M-H 0.051
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="5"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>No overfitting issue-but tendency of beta is changed
+mean(alpha-onset symptom rate)=0.6260
+mean(gamma-recovery rate)=0.9092</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">256 particles in SMC used, 
+log-likelihood var is 0.8599
+acceptance rate in M-H 0.075
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="5"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>Mild overfitting issue-tendency of beta looks similar to 
+paper's result
+mean(alpha-onset symptom rate)=0.126
+mean(gamma-recovery rate)=0.079</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3200 particles in SMC used, 
+log-likelihood var is 43421214
+acceptance rate in M-H 0.102
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="5"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>severe over-fitting issue occurred for both y and beta
+but beta tendency keep similar to paper result
+mean(alpha-onset symptom rate)=0.6174
+mean(gamma-recovery rate)=0.8911</t>
+    </r>
+  </si>
+  <si>
+    <t>paper original model-With modified model structure-tunning p and q</t>
+  </si>
+  <si>
+    <t>paperdata-modified obs eq-papermoel7.R</t>
+  </si>
+  <si>
+    <t>paperdata-tunning p and q-papermoel6.R</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">256 particles in SMC used, 
+log-likelihood var is 0.695
+acceptance rate in M-H 0.134
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="5"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>No overfitting issue-but tendency of beta is changed
+mean(alpha-onset symptom rate)=0.6307
+mean(gamma-recovery rate)=0.9076</t>
+    </r>
+  </si>
+  <si>
+    <t>our model-our prior setting- Z and paper's original log normal obs equation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -173,6 +313,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="5"/>
+      <name val="Calibri (Body)"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -200,7 +353,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -212,6 +365,12 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -528,10 +687,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB48E814-6902-C940-B5C2-3CDDF6C11F6F}">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -576,38 +735,38 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="3" customFormat="1" ht="80" x14ac:dyDescent="0.2">
-      <c r="A3" s="3">
+    <row r="3" spans="1:5" s="5" customFormat="1" ht="100" x14ac:dyDescent="0.2">
+      <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" s="3" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+      <c r="E3" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="3" customFormat="1" ht="120" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>22</v>
+        <v>27</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="3" customFormat="1" ht="120" x14ac:dyDescent="0.2">
@@ -615,73 +774,185 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="3" customFormat="1" ht="120" x14ac:dyDescent="0.2">
+      <c r="B6" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="3" customFormat="1" ht="160" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="3" customFormat="1" ht="160" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" s="3" customFormat="1" ht="40" x14ac:dyDescent="0.2">
+      <c r="B9" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="4"/>
+    </row>
+    <row r="10" spans="1:5" s="3" customFormat="1" ht="40" x14ac:dyDescent="0.2">
+      <c r="C10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" s="4"/>
+    </row>
+    <row r="11" spans="1:5" s="3" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>7</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" s="3" customFormat="1" ht="120" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>8</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="E12" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" s="3" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>9</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" s="3" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>10</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" s="3" customFormat="1" ht="40" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>11</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" s="3" customFormat="1" ht="80" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" s="3" customFormat="1" ht="40" x14ac:dyDescent="0.2">
-      <c r="A7" s="3">
-        <v>6</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" s="3" customFormat="1" ht="40" x14ac:dyDescent="0.2">
-      <c r="A8" s="3">
-        <v>7</v>
-      </c>
-      <c r="C8" s="4" t="s">
+      <c r="D15" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>12</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.2">
-      <c r="C9" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" s="3" customFormat="1" ht="19" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="1:5" s="3" customFormat="1" ht="19" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="1:5" s="3" customFormat="1" ht="19" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:5" s="3" customFormat="1" ht="19" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="1:5" s="3" customFormat="1" ht="19" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:5" s="3" customFormat="1" ht="19" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:5" s="3" customFormat="1" ht="19" x14ac:dyDescent="0.2"/>
+    </row>
     <row r="17" s="3" customFormat="1" ht="19" x14ac:dyDescent="0.2"/>
     <row r="18" s="3" customFormat="1" ht="19" x14ac:dyDescent="0.2"/>
     <row r="19" s="3" customFormat="1" ht="19" x14ac:dyDescent="0.2"/>
     <row r="20" s="3" customFormat="1" ht="19" x14ac:dyDescent="0.2"/>
+    <row r="21" s="3" customFormat="1" ht="19" x14ac:dyDescent="0.2"/>
+    <row r="22" s="3" customFormat="1" ht="19" x14ac:dyDescent="0.2"/>
+    <row r="23" s="3" customFormat="1" ht="19" x14ac:dyDescent="0.2"/>
+    <row r="24" s="3" customFormat="1" ht="19" x14ac:dyDescent="0.2"/>
+    <row r="25" s="3" customFormat="1" ht="19" x14ac:dyDescent="0.2"/>
+    <row r="26" s="3" customFormat="1" ht="19" x14ac:dyDescent="0.2"/>
+    <row r="27" s="3" customFormat="1" ht="19" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Simulation records.xlsx
+++ b/Simulation records.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mollycui/Desktop/R script/Research 10-Epid PMCMC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FAF2A07-1179-0C4B-A836-90DAAC78D139}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE3181B2-B19E-864E-849D-8CA2661D998F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="16440" xr2:uid="{73EBA2C9-B6D1-D34C-942B-D64591FD68DC}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Simulations Record" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="50">
   <si>
     <t>Number</t>
   </si>
@@ -61,9 +62,6 @@
   <si>
     <t>Our model but with changed prior settings for 
 alpha and gamma, death rate</t>
-  </si>
-  <si>
-    <t>37 H1N1 papermodel original result</t>
   </si>
   <si>
     <t>paper original model</t>
@@ -245,9 +243,6 @@
     <t>paper original model-With modified model structure-tunning p and q</t>
   </si>
   <si>
-    <t>paperdata-modified obs eq-papermoel7.R</t>
-  </si>
-  <si>
     <t>paperdata-tunning p and q-papermoel6.R</t>
   </si>
   <si>
@@ -270,6 +265,76 @@
   </si>
   <si>
     <t>our model-our prior setting- Z and paper's original log normal obs equation</t>
+  </si>
+  <si>
+    <t>paperdata-changing obs eq-papermoel7.R</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3200 particles in SMC used, 
+log-likelihood var is 1733964815
+acceptance rate in M-H 0.067
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="5"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>over-fitting issue occurred for y, not for beta
+but beta tendency keep similar to paper result
+mean(alpha-onset symptom rate)=0.6283
+mean(gamma-recovery rate)=1.0242</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1024 particles in SMC used, 
+log-likelihood var is 0.738
+acceptance rate in M-H 0.113
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="5"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>No over-fitting issue
+mean(alpha-onset symptom rate)=0.5963
+mean(gamma-recovery rate)=0.075</t>
+    </r>
+  </si>
+  <si>
+    <t>ourmodel-modified obs eq-ourmodel4.R</t>
+  </si>
+  <si>
+    <t>our model-our prior setting- Z and paper's original log normal obs equation-with longer MCMC iterations</t>
+  </si>
+  <si>
+    <t>37 H1N1 papermodel original result-papermodel.R</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3200 particles in SMC used, 
+log-likelihood var is 2.19
+acceptance rate in M-H 0.057
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="5"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>No over-fitting issue
+mean(alpha-onset symptom rate)=0.600
+mean(gamma-recovery rate)=0.068</t>
+    </r>
+  </si>
+  <si>
+    <t>ourmodel-longer mcmc-ourmodel5.R</t>
   </si>
 </sst>
 </file>
@@ -687,10 +752,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB48E814-6902-C940-B5C2-3CDDF6C11F6F}">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -732,7 +797,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="5" customFormat="1" ht="100" x14ac:dyDescent="0.2">
@@ -740,16 +805,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="3" customFormat="1" ht="120" x14ac:dyDescent="0.2">
@@ -757,16 +822,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="3" customFormat="1" ht="120" x14ac:dyDescent="0.2">
@@ -774,185 +839,215 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="3" customFormat="1" ht="120" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
       <c r="B6" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:5" s="3" customFormat="1" ht="160" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:5" s="3" customFormat="1" ht="160" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" s="3" customFormat="1" ht="40" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" s="3" customFormat="1" ht="140" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
       <c r="B9" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" s="4"/>
-    </row>
-    <row r="10" spans="1:5" s="3" customFormat="1" ht="40" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" s="3" customFormat="1" ht="120" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>45</v>
+      </c>
       <c r="C10" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E10" s="4"/>
-    </row>
-    <row r="11" spans="1:5" s="3" customFormat="1" ht="80" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
-        <v>7</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" s="3" customFormat="1" ht="120" x14ac:dyDescent="0.2">
       <c r="B11" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" s="3" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>10</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="3" t="s">
+      <c r="E12" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="4" t="s">
+    </row>
+    <row r="13" spans="1:5" s="3" customFormat="1" ht="120" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>11</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" s="3" customFormat="1" ht="120" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
-        <v>8</v>
-      </c>
-      <c r="B12" s="3" t="s">
+      <c r="C13" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="4" t="s">
+      <c r="E13" s="4" t="s">
         <v>15</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" s="3" customFormat="1" ht="80" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
-        <v>9</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:5" s="3" customFormat="1" ht="80" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C14" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" s="3" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>13</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" s="3" customFormat="1" ht="40" x14ac:dyDescent="0.2">
+      <c r="A16" s="5">
+        <v>14</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" s="3" customFormat="1" ht="40" x14ac:dyDescent="0.2">
-      <c r="A15" s="3">
+      <c r="D16" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="4" t="s">
+    </row>
+    <row r="17" spans="1:3" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>15</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.2">
-      <c r="A16" s="3">
-        <v>12</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" s="3" customFormat="1" ht="19" x14ac:dyDescent="0.2"/>
-    <row r="18" s="3" customFormat="1" ht="19" x14ac:dyDescent="0.2"/>
-    <row r="19" s="3" customFormat="1" ht="19" x14ac:dyDescent="0.2"/>
-    <row r="20" s="3" customFormat="1" ht="19" x14ac:dyDescent="0.2"/>
-    <row r="21" s="3" customFormat="1" ht="19" x14ac:dyDescent="0.2"/>
-    <row r="22" s="3" customFormat="1" ht="19" x14ac:dyDescent="0.2"/>
-    <row r="23" s="3" customFormat="1" ht="19" x14ac:dyDescent="0.2"/>
-    <row r="24" s="3" customFormat="1" ht="19" x14ac:dyDescent="0.2"/>
-    <row r="25" s="3" customFormat="1" ht="19" x14ac:dyDescent="0.2"/>
-    <row r="26" s="3" customFormat="1" ht="19" x14ac:dyDescent="0.2"/>
-    <row r="27" s="3" customFormat="1" ht="19" x14ac:dyDescent="0.2"/>
+    </row>
+    <row r="18" spans="1:3" s="3" customFormat="1" ht="19" x14ac:dyDescent="0.2"/>
+    <row r="19" spans="1:3" s="3" customFormat="1" ht="19" x14ac:dyDescent="0.2"/>
+    <row r="20" spans="1:3" s="3" customFormat="1" ht="19" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="1:3" s="3" customFormat="1" ht="19" x14ac:dyDescent="0.2"/>
+    <row r="22" spans="1:3" s="3" customFormat="1" ht="19" x14ac:dyDescent="0.2"/>
+    <row r="23" spans="1:3" s="3" customFormat="1" ht="19" x14ac:dyDescent="0.2"/>
+    <row r="24" spans="1:3" s="3" customFormat="1" ht="19" x14ac:dyDescent="0.2"/>
+    <row r="25" spans="1:3" s="3" customFormat="1" ht="19" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="1:3" s="3" customFormat="1" ht="19" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="1:3" s="3" customFormat="1" ht="19" x14ac:dyDescent="0.2"/>
+    <row r="28" spans="1:3" s="3" customFormat="1" ht="19" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Simulation records.xlsx
+++ b/Simulation records.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mollycui/Desktop/R script/Research 10-Epid PMCMC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE3181B2-B19E-864E-849D-8CA2661D998F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CAAE845-30C5-904C-9DB7-A9612388EE6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="16440" xr2:uid="{73EBA2C9-B6D1-D34C-942B-D64591FD68DC}"/>
+    <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="16440" activeTab="1" xr2:uid="{73EBA2C9-B6D1-D34C-942B-D64591FD68DC}"/>
   </bookViews>
   <sheets>
     <sheet name="Simulations Record" sheetId="1" r:id="rId1"/>
+    <sheet name="SEIR simulation experiment" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="55">
   <si>
     <t>Number</t>
   </si>
@@ -335,6 +336,21 @@
   </si>
   <si>
     <t>ourmodel-longer mcmc-ourmodel5.R</t>
+  </si>
+  <si>
+    <t>366 simulated daily data</t>
+  </si>
+  <si>
+    <t>simulatetrial.R</t>
+  </si>
+  <si>
+    <t>simulatetrial1.R-random seed db check</t>
+  </si>
+  <si>
+    <t>simulatetrial2.R</t>
+  </si>
+  <si>
+    <t>366 simulated weekly data</t>
   </si>
 </sst>
 </file>
@@ -754,8 +770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB48E814-6902-C940-B5C2-3CDDF6C11F6F}">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1053,4 +1069,72 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6147CF3-900E-304D-8267-397FA74FE81A}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="43.6640625" customWidth="1"/>
+    <col min="2" max="2" width="28.5" customWidth="1"/>
+    <col min="3" max="3" width="30.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="2" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73E445C2-1751-B54D-9CDC-22245B596173}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Simulation records.xlsx
+++ b/Simulation records.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mollycui/Desktop/R script/Research 10-Epid PMCMC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CAAE845-30C5-904C-9DB7-A9612388EE6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD311179-425F-EF4B-B7C7-BEAB55B8AAAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="16440" activeTab="1" xr2:uid="{73EBA2C9-B6D1-D34C-942B-D64591FD68DC}"/>
+    <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="16440" activeTab="2" xr2:uid="{73EBA2C9-B6D1-D34C-942B-D64591FD68DC}"/>
   </bookViews>
   <sheets>
     <sheet name="Simulations Record" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="68">
   <si>
     <t>Number</t>
   </si>
@@ -352,12 +352,265 @@
   <si>
     <t>366 simulated weekly data</t>
   </si>
+  <si>
+    <t>Basic Settings</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>A. Fixed β-SEIRM Deterministic Compartment Model (Basic)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">y_t ~ lognorm(mean= αE(A)_t/5, sd=tau)
+</t>
+    </r>
+  </si>
+  <si>
+    <t>Experiments Complete</t>
+  </si>
+  <si>
+    <t>1. Simulation dataset of y_t
+2. prior settings of parameters
+3. proposal settings of parameters
+4. initial values of parameters
+5. MCMC number of burn-ins &amp; iterations
+Parameter Prior Settings: 
+sigma ~ truncated_gaussian(0.20379467, 0.2, lower = 0) 
+gamma ~ truncated_gaussian(0.12460946, 0.2, lower = 0) 
+beta ~ truncated_gaussian(0.57586873, 0.3, lower = 0) 
+mu ~ truncated_gaussian(0.001, 0.001, lower = 0) 
+tau~uniform(0,1)
+Parameter Initial Fixed Values: 
+Sigma= 0.19
+Gamma= 0.2
+Beta= 0.53
+Mu= 0.0015
+Parameter Proposal Settings: 
+ sigma ~ gaussian(sigma, 0.01)
+ gamma ~ gaussian(gamma, 0.01)
+ beta ~ gaussian(beta, 0.01)
+ mu ~ gaussian(mu,0.001)
+tau ~ truncated_gaussian(tau,0.0001, lower=0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Small simulation dataset 1 day unit-2 days vs Large simulation dataset-365 days vs Large simulation dataset-365 days for half day unit; 
+Prior of sigma changes;
+Prior of tau changes;
+Proposal distribution changes;
+Proposal sd of tau changes;
+Proposal sd of sigma &amp; gamma changes;
+MCMC iterations changes: 1 burn-in+1000/5=200 iterations vs 1000 burn-in+1000000/5=200000 iterations
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Small simulation dataset 1 day unit-2 days vs Large simulation dataset-365 days vs Large simulation dataset-365 days for half day unit; 
+Prior of sigma changes;
+Prior of tau changes;
+Proposal distribution changes;
+Proposal sd of tau changes;
+Proposal sd of sigma &amp; gamma changes;
+MCMC iterations changes: 1 burn-in+1000/5=200 iterations vs 1000 burn-in+100000/5=20000 iterations
+</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>B. Fixed β-SEIR Deterministic Compartment Model (Intermediate)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">y_t ~ lognorm(mean= αE(A)_t/5, sd=tau)
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>C. Fixed β-SEIR Deterministic Compartment Model (Intermediate)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">y_t ~ lognorm(mean= αE(A)_t/5, sd=tau)
+</t>
+    </r>
+  </si>
+  <si>
+    <t>Parameter Prior Settings: 
+alpha ~ truncated_gaussian(1.59, 0.02, lower = 0) // alpha is the period here, not the rate, i.e. 1/k is the rate
+gamma ~ truncated_gaussian(1.08, 0.075, lower = 0) // gamma is the period, not the rate
+sigma ~ uniform(0,1)
+x0 ~ uniform(-5,2)
+I0 ~ uniform(-16, -9)
+E0 ~ uniform(-16, -9)
+R0 ~ truncated_gaussian(0.15, 0.15, lower = 0, upper = 1)
+tau ~ uniform(0, 1)
+Initial State settings:
+S &lt;- N
+    R &lt;- R0*S
+    S &lt;- S - R
+    E &lt;- exp(E0 + log(S))
+    S &lt;- S - E
+    I &lt;- exp(I0 + log(S))
+    S &lt;- S - I
+    x &lt;- x0
+    Z &lt;- 0
+Parameter Proposal Settings: 
+ alpha ~ gaussian(alpha, 0.005)
+    sigma ~ gaussian(sigma, 0.01)
+    gamma ~ gaussian(gamma, 0.01)
+    x0 ~ gaussian(x0, 0.05)
+    E0 ~ gaussian(E0, 0.05)
+    I0 ~ gaussian(I0, 0.05)
+    R0 ~ gaussian(R0, 0.05)
+    tau ~ gaussian(tau, 0.05)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37 weeks real data+simulating data for 1000 burn-ins &amp; 100000/5=20000 iterations; 
+</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>D. Fixed β-SEIR Deterministic Compartment Model (Intermediate)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">y_t ~ lognorm(mean= αE(A)_t/5, sd=tau)
+</t>
+    </r>
+  </si>
+  <si>
+    <t>Parameter Prior Settings: 
+alpha~ truncated_gaussian(5.6, 5, lower = 0) // alpha is the period here, not the rate, i.e. 1/alpha is the rate
+    gamma ~ truncated_gaussian(11.5, 2.9, lower = 0) // gamma is the period, not the rate
+    sigma ~ uniform(0,1)
+    x0 ~ uniform(-5,2)
+    I0 ~ uniform(-16, -9)
+    E0 ~ uniform(-16, -9)
+    R0 ~ truncated_gaussian(0.15, 0.15, lower = 0, upper = 1)
+    tau ~ uniform(0, 1)
+Initial State settings:
+S &lt;- N
+    R &lt;- R0*S
+    S &lt;- S - R
+    E &lt;- exp(E0 + log(S))
+    S &lt;- S - E
+    I &lt;- exp(I0 + log(S))
+    S &lt;- S - I
+    x &lt;- x0
+    Z &lt;- 0
+Parameter Proposal Settings: 
+ alpha ~ gaussian(alpha, 0.005)
+    sigma ~ gaussian(sigma, 0.01)
+    gamma ~ gaussian(gamma, 0.01)
+    x0 ~ gaussian(x0, 0.05)
+    E0 ~ gaussian(E0, 0.05)
+    I0 ~ gaussian(I0, 0.05)
+    R0 ~ gaussian(R0, 0.05)
+    tau ~ gaussian(tau, 0.05)</t>
+  </si>
+  <si>
+    <t>COVID-19 England 60 weeks real weekly data: 2020.2.3-2021.3.28 in England</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -407,6 +660,35 @@
       <color theme="5"/>
       <name val="Calibri (Body)"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -434,7 +716,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -454,6 +736,18 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -469,6 +763,270 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1346200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>3175000</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>5025399</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="Text, letter&#10;&#10;Description automatically generated">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E08AC26D-49D5-7E65-7591-5038402D8791}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="647700" y="1803400"/>
+          <a:ext cx="2527300" cy="3679199"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1346200</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2527300" cy="3679199"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2" descr="Text, letter&#10;&#10;Description automatically generated">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99038EF8-8DF6-9149-B5F5-B2D4D01D9018}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="647700" y="1803400"/>
+          <a:ext cx="2527300" cy="3679199"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1079500</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>1485900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>3580035</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>4851400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6" descr="Table&#10;&#10;Description automatically generated">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65807052-0CBA-F1BE-3ECE-4787E94F97F5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1079500" y="7137400"/>
+          <a:ext cx="2500535" cy="3365500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>876300</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1003301</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>3543300</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>5042597</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8" descr="Table&#10;&#10;Description automatically generated">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92943ADD-F07A-4F35-D19B-AE0BCE2BDC86}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="876300" y="11849101"/>
+          <a:ext cx="2667000" cy="4039296"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>393701</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1460500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>3785442</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>3183723</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10" descr="Text, letter&#10;&#10;Description automatically generated">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BCA3E7B1-E0E3-444F-DC8D-3EE0A51E076C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="393701" y="17500600"/>
+          <a:ext cx="3391741" cy="1723223"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>3183722</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1720643</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>3937349</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11" descr="Text&#10;&#10;Description automatically generated with medium confidence">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFACE61E-0D7D-CE65-C040-966685AE1C43}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="393700" y="19223822"/>
+          <a:ext cx="1326943" cy="753627"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -770,8 +1328,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB48E814-6902-C940-B5C2-3CDDF6C11F6F}">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1075,7 +1633,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6147CF3-900E-304D-8267-397FA74FE81A}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
@@ -1129,12 +1687,116 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73E445C2-1751-B54D-9CDC-22245B596173}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="2" width="61.6640625" customWidth="1"/>
+    <col min="3" max="3" width="49.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="2" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" s="3" customFormat="1" ht="409" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" s="3" customFormat="1" ht="409" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="3" customFormat="1" ht="409" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" s="3" customFormat="1" ht="409" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" s="3" customFormat="1" ht="19" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:3" s="3" customFormat="1" ht="19" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:3" s="3" customFormat="1" ht="19" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:3" s="3" customFormat="1" ht="19" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:3" s="3" customFormat="1" ht="19" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:3" s="3" customFormat="1" ht="19" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:3" s="3" customFormat="1" ht="19" x14ac:dyDescent="0.2">
+      <c r="C12" s="4"/>
+    </row>
+    <row r="13" spans="1:3" s="3" customFormat="1" ht="19" x14ac:dyDescent="0.2">
+      <c r="C13" s="4"/>
+    </row>
+    <row r="14" spans="1:3" s="3" customFormat="1" ht="19" x14ac:dyDescent="0.2">
+      <c r="C14" s="4"/>
+    </row>
+    <row r="15" spans="1:3" s="3" customFormat="1" ht="19" x14ac:dyDescent="0.2">
+      <c r="C15" s="4"/>
+    </row>
+    <row r="16" spans="1:3" s="3" customFormat="1" ht="19" x14ac:dyDescent="0.2">
+      <c r="C16" s="4"/>
+    </row>
+    <row r="17" spans="3:3" s="3" customFormat="1" ht="19" x14ac:dyDescent="0.2">
+      <c r="C17" s="4"/>
+    </row>
+    <row r="18" spans="3:3" s="3" customFormat="1" ht="19" x14ac:dyDescent="0.2">
+      <c r="C18" s="4"/>
+    </row>
+    <row r="19" spans="3:3" s="3" customFormat="1" ht="19" x14ac:dyDescent="0.2">
+      <c r="C19" s="4"/>
+    </row>
+    <row r="20" spans="3:3" s="3" customFormat="1" ht="19" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="3:3" s="3" customFormat="1" ht="19" x14ac:dyDescent="0.2"/>
+    <row r="22" spans="3:3" s="3" customFormat="1" ht="19" x14ac:dyDescent="0.2"/>
+    <row r="23" spans="3:3" s="3" customFormat="1" ht="19" x14ac:dyDescent="0.2"/>
+    <row r="24" spans="3:3" s="3" customFormat="1" ht="19" x14ac:dyDescent="0.2"/>
+    <row r="25" spans="3:3" s="3" customFormat="1" ht="19" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="3:3" s="3" customFormat="1" ht="19" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="3:3" s="3" customFormat="1" ht="19" x14ac:dyDescent="0.2"/>
+    <row r="28" spans="3:3" s="3" customFormat="1" ht="19" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="3:3" s="3" customFormat="1" ht="19" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="3:3" s="3" customFormat="1" ht="19" x14ac:dyDescent="0.2"/>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Simulation records.xlsx
+++ b/Simulation records.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mollycui/Desktop/R script/Research 10-Epid PMCMC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD311179-425F-EF4B-B7C7-BEAB55B8AAAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F7E1C18-3153-0A4B-9413-D309ADAC7A27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="16440" activeTab="2" xr2:uid="{73EBA2C9-B6D1-D34C-942B-D64591FD68DC}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{73EBA2C9-B6D1-D34C-942B-D64591FD68DC}"/>
   </bookViews>
   <sheets>
     <sheet name="Simulations Record" sheetId="1" r:id="rId1"/>
@@ -356,40 +356,6 @@
     <t>Basic Settings</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>A. Fixed β-SEIRM Deterministic Compartment Model (Basic)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">y_t ~ lognorm(mean= αE(A)_t/5, sd=tau)
-</t>
-    </r>
-  </si>
-  <si>
     <t>Experiments Complete</t>
   </si>
   <si>
@@ -435,74 +401,6 @@
 Proposal sd of sigma &amp; gamma changes;
 MCMC iterations changes: 1 burn-in+1000/5=200 iterations vs 1000 burn-in+100000/5=20000 iterations
 </t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>B. Fixed β-SEIR Deterministic Compartment Model (Intermediate)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">y_t ~ lognorm(mean= αE(A)_t/5, sd=tau)
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>C. Fixed β-SEIR Deterministic Compartment Model (Intermediate)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">y_t ~ lognorm(mean= αE(A)_t/5, sd=tau)
-</t>
-    </r>
   </si>
   <si>
     <t>Parameter Prior Settings: 
@@ -604,6 +502,108 @@
   </si>
   <si>
     <t>COVID-19 England 60 weeks real weekly data: 2020.2.3-2021.3.28 in England</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>1 A. Fixed β-SEIRM Deterministic Compartment Model (Basic)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">y_t ~ lognorm(mean= αE(A)_t/5, sd=tau)
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>1 B. Fixed β-SEIR Deterministic Compartment Model (Intermediate)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">y_t ~ lognorm(mean= αE(A)_t/5, sd=tau)
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">2. Stochastic β component-SEIR-BM Deterministic Compartment Model </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">y_t ~ lognorm(mean= αE(A)_t/5, sd=tau)
+</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1328,8 +1328,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB48E814-6902-C940-B5C2-3CDDF6C11F6F}">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1689,8 +1689,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73E445C2-1751-B54D-9CDC-22245B596173}">
   <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" zoomScale="89" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1707,51 +1707,51 @@
         <v>55</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="3" customFormat="1" ht="409" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="B2" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>58</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:3" s="3" customFormat="1" ht="409" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:3" s="3" customFormat="1" ht="409" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:3" s="3" customFormat="1" ht="409" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:3" s="3" customFormat="1" ht="19" x14ac:dyDescent="0.2"/>
